--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/66_Sakarya_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/66_Sakarya_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABFFF966-A62F-4172-87C6-B6C5AB6BCDEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{467AADF7-4832-41BD-A77E-32A0D5B1AE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="681" xr2:uid="{629905AE-F9E6-4D3E-94B5-363BD2CFDD43}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="681" xr2:uid="{67220ADB-2210-4750-AA1C-9F14ECA2B741}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -819,13 +819,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{B359B4B7-512C-4088-B688-B321C3338246}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{A2A2792B-212C-4C0C-A970-1E4FC4A23598}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{8348810B-6D57-4A10-B398-3F0AC6A792F5}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{2CB76F74-0402-4A08-9818-3A0B16830E6F}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{041E281E-8310-420C-9847-D25F38B837ED}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{9B557BAF-CE44-4E89-9EE6-92EA929E3FCC}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{70CB84ED-F09D-492C-99DE-C478FC7F6C18}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{986DB60A-150C-4BD9-9D0F-6DBB4A7EDCE4}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{D2505B7B-9BD9-45D7-BB73-BDDF85C8F253}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{38CD92A1-F7A5-42AA-9D17-9F43099A0E25}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{BE58E0BE-415F-47B2-98D3-F573F3036E80}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{799BBC82-6507-430D-A817-AC9F04FB74B8}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{1F4D3B93-4F35-4FDE-BF5E-7F7451840A4C}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{5422DB62-6978-4728-91D4-26C058B20512}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1195,7 +1195,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B682FC-8602-4703-8550-C6BB3933E376}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E31220D8-5BBA-441F-B59E-77C1A09D48A2}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2492,7 +2492,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0A7193-E68C-4F0E-A55C-F9EFFEB3A551}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7C2C98-9FB2-4FB5-B267-91A9141C5786}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3795,7 +3795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB985DE-47B1-4ADB-9165-174EA48249EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1310434C-52CB-43BF-A6AA-CB4E15E252F7}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5096,7 +5096,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3CEC30-D0B6-42CC-AF7C-A1DEBEAAE123}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F136B823-20C6-4C15-B84C-3172666169E0}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6397,7 +6397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CA571E-0150-4FCF-90A7-1B4EE31C4F10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D824FAAC-B1F8-4699-B719-9459F839BE93}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7694,7 +7694,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{318990CD-7999-4995-9076-3B28B7E1636E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE94AE2-2938-4227-B58E-2868570252DF}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
